--- a/src/analysis_examples/circadb/results_lomb/cosinor_10478754_arfgef2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10478754_arfgef2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23558235290677254, 0.3401849175735351]</t>
+          <t>[0.23591281962493027, 0.33985445085537735]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.729698606567354e-10</v>
+        <v>1.540856331416762e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.729698606567354e-10</v>
+        <v>1.540856331416762e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.2893158399702314</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3687567371682451, 0.427962801477333]</t>
+          <t>[0.3687478542176483, 0.4279716844279298]</t>
         </is>
       </c>
       <c r="U2" t="n">
